--- a/xlsx/蒂托·李维_intext.xlsx
+++ b/xlsx/蒂托·李维_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="505">
   <si>
     <t>蒂托·李维</t>
   </si>
@@ -29,43 +29,43 @@
     <t>帕多瓦</t>
   </si>
   <si>
-    <t>政策_政策_政治學_蒂托·李维</t>
+    <t>政策_政策_政治学_蒂托·李维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>歷史學家</t>
+    <t>历史学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>歷史</t>
+    <t>历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E8%A8%98</t>
   </si>
   <si>
-    <t>傳記</t>
+    <t>传记</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E8%AC%9B</t>
   </si>
   <si>
-    <t>演講</t>
+    <t>演讲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E6%8B%89%E4%B8%81%E8%AA%9E</t>
   </si>
   <si>
-    <t>古典拉丁語</t>
+    <t>古典拉丁语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8F%AF%E6%B4%9B%C2%B7%E9%A6%AC%E5%9F%BA%E7%B6%AD%E5%88%A9</t>
   </si>
   <si>
-    <t>尼可洛·馬基維利</t>
+    <t>尼可洛·马基维利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BD%97%E9%A9%AC</t>
@@ -77,9 +77,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%86%E5%8F%B2</t>
   </si>
   <si>
-    <t>历史</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%B0%BC%E6%96%AF</t>
   </si>
   <si>
@@ -137,13 +134,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%C2%B7%E5%AE%89%E6%9D%B1%E5%B0%BC</t>
   </si>
   <si>
-    <t>馬克·安東尼</t>
+    <t>马克·安东尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%88%A9%E5%8D%A1%E7%B4%8D%E8%98%87%E6%96%AF%E7%9A%84%E7%8B%84%E5%A5%A7%E5%B0%BC%E4%BF%AE%E6%96%AF</t>
   </si>
   <si>
-    <t>哈利卡納蘇斯的狄奧尼修斯</t>
+    <t>哈利卡纳苏斯的狄奥尼修斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%8F%A4%E6%96%AF%E9%83%BD</t>
@@ -161,7 +158,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%8B%9E%E7%8B%84%E4%B8%80%E4%B8%96</t>
   </si>
   <si>
-    <t>克勞狄一世</t>
+    <t>克劳狄一世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E8%A5%BF%E4%BD%97</t>
@@ -317,13 +314,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E8%AB%BE%E6%96%AF%E5%85%8B%E6%B3%95%E8%90%8A%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>庫諾斯克法萊戰役</t>
+    <t>库诺斯克法莱战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E5%9C%96%E6%96%AF%C2%B7%E6%98%86%E5%85%8B%E8%92%82%E7%83%8F%E6%96%AF%C2%B7%E5%BC%97%E6%8B%89%E7%B1%B3%E5%AF%A7</t>
   </si>
   <si>
-    <t>提圖斯·昆克蒂烏斯·弗拉米寧</t>
+    <t>提图斯·昆克蒂乌斯·弗拉米宁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A4%9A%E8%91%9B%E6%B4%BE</t>
@@ -365,7 +362,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%87%E5%BA%AB</t>
   </si>
   <si>
-    <t>維基文庫</t>
+    <t>维基文库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E7%99%BE%E7%A7%91%E7%AC%AC11%E7%89%88</t>
@@ -377,9 +374,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%87%E5%BA%93</t>
   </si>
   <si>
-    <t>维基文库</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E8%85%BE%E5%A0%A1%E8%AE%A1%E5%88%92</t>
   </si>
   <si>
@@ -407,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>羅馬歷史</t>
+    <t>罗马历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E7%9A%84%E5%BB%BA%E7%AB%8B</t>
@@ -539,13 +533,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%8B%99%E5%AE%98_(%E7%BE%85%E9%A6%AC)</t>
   </si>
   <si>
-    <t>政務官 (羅馬)</t>
+    <t>政务官 (罗马)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>羅馬帝國政府</t>
+    <t>罗马帝国政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%BB%B7</t>
@@ -581,7 +575,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%8A%A0%E5%9C%96%E6%96%AF</t>
   </si>
   <si>
-    <t>雷加圖斯</t>
+    <t>雷加图斯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dux</t>
@@ -611,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%8D%81%E5%85%AD%E4%BA%BA%E5%9C%98</t>
   </si>
   <si>
-    <t>二十六人團</t>
+    <t>二十六人团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%80%E6%96%A7%E6%89%8B</t>
@@ -707,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E7%B8%BD%E7%9D%A3</t>
   </si>
   <si>
-    <t>羅馬總督</t>
+    <t>罗马总督</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E5%AE%98</t>
@@ -725,7 +719,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%BA%BA%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>十人委員會</t>
+    <t>十人委员会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Tribuni_militum_consulari_potestate</t>
@@ -737,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E9%A0%AD%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>三頭政治</t>
+    <t>三头政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%9B%BD%E7%8E%8B</t>
@@ -815,7 +809,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%B0%91_(%E5%8F%A4%E7%BE%85%E9%A6%AC)</t>
   </si>
   <si>
-    <t>平民 (古羅馬)</t>
+    <t>平民 (古罗马)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Conflict_of_the_Orders</t>
@@ -875,7 +869,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC%E5%90%8C%E6%80%A7%E6%88%80</t>
   </si>
   <si>
-    <t>古羅馬同性戀</t>
+    <t>古罗马同性恋</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Slavery_in_ancient_Rome</t>
@@ -893,7 +887,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>古羅馬軍事</t>
+    <t>古罗马军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BD%97%E9%A9%AC%E5%86%9B%E4%BA%8B%E5%8F%B2</t>
@@ -905,7 +899,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%88%B0%E5%BD%B9%E5%8F%B2</t>
   </si>
   <si>
-    <t>羅馬戰役史</t>
+    <t>罗马战役史</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/%E5%8F%A4%E7%BD%97%E9%A9%AC%E5%86%9B%E4%BA%8B%E7%A7%91%E6%8A%80%E5%8F%B2</t>
@@ -953,7 +947,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E9%99%B8%E8%BB%8D</t>
   </si>
   <si>
-    <t>羅馬陸軍</t>
+    <t>罗马陆军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%86%9B%E5%9B%A2</t>
@@ -977,7 +971,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>羅馬海軍</t>
+    <t>罗马海军</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Auxiliaries_(Roman_military)</t>
@@ -1037,7 +1031,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>古羅馬文化</t>
+    <t>古罗马文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BD%97%E9%A9%AC%E6%96%87%E5%AD%A6</t>
@@ -1049,13 +1043,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>古羅馬建築</t>
+    <t>古罗马建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC%E5%AE%97%E6%95%99</t>
   </si>
   <si>
-    <t>古羅馬宗教</t>
+    <t>古罗马宗教</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Roman_funerals_and_burial</t>
@@ -1157,7 +1151,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E9%81%93%E8%B7%AF</t>
   </si>
   <si>
-    <t>羅馬道路</t>
+    <t>罗马道路</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Roman_bridge</t>
@@ -1193,7 +1187,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>古羅馬農業</t>
+    <t>古罗马农业</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Roman_commerce</t>
@@ -1313,7 +1307,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E5%9D%8E</t>
   </si>
   <si>
-    <t>盧坎</t>
+    <t>卢坎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E5%85%8B%E8%8E%B1%E4%BF%AE</t>
@@ -1331,13 +1325,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E7%B6%AD%E5%BE%B7</t>
   </si>
   <si>
-    <t>奧維德</t>
+    <t>奥维德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E5%8E%84%E6%96%AF%C2%B7%E4%BD%A9%E7%89%B9%E7%BE%85%E5%B0%BC%E7%83%8F%E6%96%AF%C2%B7%E9%98%BF%E7%88%BE%E6%AF%94%E7%89%B9</t>
   </si>
   <si>
-    <t>蓋厄斯·佩特羅尼烏斯·阿爾比特</t>
+    <t>盖厄斯·佩特罗尼乌斯·阿尔比特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%8A%B3%E5%9B%BE%E6%96%AF</t>
@@ -1379,7 +1373,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%85%A7%E5%8D%A1</t>
   </si>
   <si>
-    <t>塞內卡</t>
+    <t>塞内卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A1%94%E6%8F%90%E4%B9%8C%E6%96%AF</t>
@@ -1415,7 +1409,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BA%AB%E6%96%AF%C2%B7%E7%89%B9%E5%80%AB%E6%8F%90%E7%83%8F%E6%96%AF%C2%B7%E7%93%A6%E7%BE%85</t>
   </si>
   <si>
-    <t>馬庫斯·特倫提烏斯·瓦羅</t>
+    <t>马库斯·特伦提乌斯·瓦罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%90%89%E5%B0%94</t>
@@ -1469,7 +1463,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1487,7 +1481,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1505,7 +1499,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1517,7 +1511,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2167,7 +2161,7 @@
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
         <v>27</v>
@@ -2193,10 +2187,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -2222,10 +2216,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
@@ -2251,10 +2245,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
@@ -2280,10 +2274,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
@@ -2309,10 +2303,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -2338,10 +2332,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>5</v>
@@ -2367,10 +2361,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>14</v>
@@ -2396,10 +2390,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>51</v>
@@ -2425,10 +2419,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -2454,10 +2448,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -2483,10 +2477,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -2512,10 +2506,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>8</v>
@@ -2541,10 +2535,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -2570,10 +2564,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -2599,10 +2593,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -2628,10 +2622,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>4</v>
@@ -2657,10 +2651,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2686,10 +2680,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2715,10 +2709,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s">
         <v>27</v>
-      </c>
-      <c r="F29" t="s">
-        <v>28</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2744,10 +2738,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2773,10 +2767,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2802,10 +2796,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2831,10 +2825,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>3</v>
@@ -2860,10 +2854,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -2889,10 +2883,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2918,10 +2912,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2947,10 +2941,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2976,10 +2970,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3005,10 +2999,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -3034,10 +3028,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -3063,10 +3057,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3092,10 +3086,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>5</v>
@@ -3121,10 +3115,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -3150,10 +3144,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>5</v>
@@ -3179,10 +3173,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>7</v>
@@ -3208,10 +3202,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3237,10 +3231,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3266,10 +3260,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>4</v>
@@ -3295,10 +3289,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>3</v>
@@ -3324,10 +3318,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3353,10 +3347,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3382,10 +3376,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3411,10 +3405,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3440,10 +3434,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3469,10 +3463,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3498,10 +3492,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3527,10 +3521,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3556,10 +3550,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3585,10 +3579,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3614,10 +3608,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3643,10 +3637,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3672,10 +3666,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3701,10 +3695,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3730,10 +3724,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3759,10 +3753,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3788,10 +3782,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -3817,10 +3811,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3846,10 +3840,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3875,10 +3869,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>4</v>
@@ -3904,10 +3898,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>8</v>
@@ -3933,10 +3927,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -3962,10 +3956,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3991,10 +3985,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4020,10 +4014,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4049,10 +4043,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4078,10 +4072,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4107,10 +4101,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>6</v>
@@ -4136,10 +4130,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4165,10 +4159,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4194,10 +4188,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4223,10 +4217,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4252,10 +4246,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4281,10 +4275,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4310,10 +4304,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4339,10 +4333,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4368,10 +4362,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4397,10 +4391,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4426,10 +4420,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -4455,10 +4449,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4484,10 +4478,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4513,10 +4507,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -4542,10 +4536,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4571,10 +4565,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -4600,10 +4594,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>3</v>
@@ -4629,10 +4623,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4658,10 +4652,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4687,10 +4681,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4716,10 +4710,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4745,10 +4739,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4774,10 +4768,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4803,10 +4797,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4832,10 +4826,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4861,10 +4855,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4890,10 +4884,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4919,10 +4913,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4948,10 +4942,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4977,10 +4971,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5006,10 +5000,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5035,10 +5029,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5064,10 +5058,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5093,10 +5087,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5122,10 +5116,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5151,10 +5145,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5180,10 +5174,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -5209,10 +5203,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5238,10 +5232,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -5267,10 +5261,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5296,10 +5290,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5325,10 +5319,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5354,10 +5348,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5383,10 +5377,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5412,10 +5406,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5441,10 +5435,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5470,10 +5464,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G124" t="n">
         <v>4</v>
@@ -5499,10 +5493,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5528,10 +5522,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5557,10 +5551,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5586,10 +5580,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5615,10 +5609,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5644,10 +5638,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5673,10 +5667,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5702,10 +5696,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5731,10 +5725,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -5760,10 +5754,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G134" t="n">
         <v>4</v>
@@ -5789,10 +5783,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5818,10 +5812,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5847,10 +5841,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5876,10 +5870,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5905,10 +5899,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -5934,10 +5928,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5963,10 +5957,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5992,10 +5986,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6021,10 +6015,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6050,10 +6044,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6079,10 +6073,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6108,10 +6102,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6137,10 +6131,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6166,10 +6160,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6195,10 +6189,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F149" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6224,10 +6218,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F150" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6253,10 +6247,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6282,10 +6276,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6311,10 +6305,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F153" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6340,10 +6334,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F154" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6369,10 +6363,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6398,10 +6392,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F156" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6427,10 +6421,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F157" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6456,10 +6450,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F158" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -6485,10 +6479,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F159" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6514,10 +6508,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F160" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6543,10 +6537,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F161" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6572,10 +6566,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F162" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6601,10 +6595,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F163" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6630,10 +6624,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F164" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6659,10 +6653,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F165" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6688,10 +6682,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F166" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6717,10 +6711,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F167" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6746,10 +6740,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F168" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6775,10 +6769,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F169" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6804,10 +6798,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F170" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6833,10 +6827,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F171" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G171" t="n">
         <v>3</v>
@@ -6862,10 +6856,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F172" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -6891,10 +6885,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F173" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6920,10 +6914,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F174" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6949,10 +6943,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F175" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6978,10 +6972,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F176" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7007,10 +7001,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F177" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7036,10 +7030,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F178" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7065,10 +7059,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F179" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7094,10 +7088,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F180" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7123,10 +7117,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F181" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7152,10 +7146,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F182" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7181,10 +7175,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F183" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7210,10 +7204,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F184" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7239,10 +7233,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F185" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7268,10 +7262,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F186" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -7297,10 +7291,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F187" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7326,10 +7320,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F188" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7355,10 +7349,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F189" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7384,10 +7378,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F190" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7413,10 +7407,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F191" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7442,10 +7436,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F192" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7471,10 +7465,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F193" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7500,10 +7494,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F194" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7529,10 +7523,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F195" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7558,10 +7552,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F196" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7587,10 +7581,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F197" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7616,10 +7610,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F198" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7645,10 +7639,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F199" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7674,10 +7668,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F200" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7703,10 +7697,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F201" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G201" t="n">
         <v>5</v>
@@ -7732,10 +7726,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F202" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7761,10 +7755,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F203" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7790,10 +7784,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F204" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7819,10 +7813,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F205" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7877,10 +7871,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F207" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7906,10 +7900,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F208" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7935,10 +7929,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F209" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -7964,10 +7958,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F210" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7993,10 +7987,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F211" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8022,10 +8016,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F212" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8051,10 +8045,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F213" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8080,10 +8074,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F214" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G214" t="n">
         <v>7</v>
@@ -8109,10 +8103,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F215" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8138,10 +8132,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F216" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8167,10 +8161,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F217" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8196,10 +8190,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F218" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8225,10 +8219,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F219" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8254,10 +8248,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F220" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8283,10 +8277,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F221" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8312,10 +8306,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F222" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8341,10 +8335,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F223" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8370,10 +8364,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F224" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8399,10 +8393,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F225" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8428,10 +8422,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F226" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8457,10 +8451,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F227" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8486,10 +8480,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F228" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8515,10 +8509,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F229" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8544,10 +8538,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F230" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8573,10 +8567,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F231" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8602,10 +8596,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F232" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8631,10 +8625,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F233" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8660,10 +8654,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F234" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -8689,10 +8683,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F235" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8718,10 +8712,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F236" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8747,10 +8741,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F237" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8776,10 +8770,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F238" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8805,10 +8799,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F239" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8834,10 +8828,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F240" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8863,10 +8857,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F241" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G241" t="n">
         <v>3</v>
@@ -8892,10 +8886,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F242" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8921,10 +8915,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F243" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G243" t="n">
         <v>2</v>
@@ -8950,10 +8944,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F244" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -8979,10 +8973,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F245" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9008,10 +9002,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F246" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G246" t="n">
         <v>3</v>
@@ -9037,10 +9031,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F247" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9066,10 +9060,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F248" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9095,10 +9089,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F249" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9124,10 +9118,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F250" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9153,10 +9147,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F251" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9182,10 +9176,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F252" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9211,10 +9205,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F253" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9240,10 +9234,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F254" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9269,10 +9263,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F255" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9298,10 +9292,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F256" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9327,10 +9321,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F257" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G257" t="n">
         <v>2</v>

--- a/xlsx/蒂托·李维_intext.xlsx
+++ b/xlsx/蒂托·李维_intext.xlsx
@@ -29,7 +29,7 @@
     <t>帕多瓦</t>
   </si>
   <si>
-    <t>政策_政策_政治學_蒂托·李维</t>
+    <t>体育运动_体育运动_古罗马_蒂托·李维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2%E5%AD%B8%E5%AE%B6</t>
